--- a/Docs/Agenda en notulen/Agenda's/Agenda_Week_2.xlsx
+++ b/Docs/Agenda en notulen/Agenda's/Agenda_Week_2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P5\Docs\Agenda en notulen\Agenda's\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="12210"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>Fer</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>wie</t>
   </si>
@@ -194,16 +199,19 @@
   </si>
   <si>
     <t xml:space="preserve">Datum:26-09-2014 </t>
+  </si>
+  <si>
+    <t>Groep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,7 +620,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -654,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,9 +694,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,6 +729,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -895,17 +905,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -920,8 +930,8 @@
     <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -931,7 +941,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="49" t="s">
         <v>18</v>
       </c>
@@ -945,7 +955,7 @@
       <c r="H3" s="54"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>30</v>
       </c>
@@ -957,7 +967,7 @@
       <c r="H4" s="57"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
@@ -969,7 +979,7 @@
       <c r="H5" s="60"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -987,7 +997,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -996,7 +1006,7 @@
       <c r="H7" s="28"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +1026,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1035,8 +1045,10 @@
       <c r="H9" s="28"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="12"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="12">
         <v>5</v>
       </c>
@@ -1053,8 +1065,10 @@
       <c r="H10" s="28"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="12"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="12">
         <v>5</v>
       </c>
@@ -1070,8 +1084,10 @@
       <c r="H11" s="28"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="12"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="12">
         <v>5</v>
       </c>
@@ -1087,8 +1103,10 @@
       <c r="H12" s="28"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="12"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="12">
         <v>2</v>
       </c>
@@ -1104,8 +1122,10 @@
       <c r="H13" s="28"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="12"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="12">
         <v>5</v>
       </c>
@@ -1121,8 +1141,10 @@
       <c r="H14" s="28"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="18"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="12">
         <v>2</v>
       </c>
@@ -1139,8 +1161,10 @@
       <c r="H15" s="28"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B16" s="19"/>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="19">
         <v>3</v>
       </c>
@@ -1156,7 +1180,7 @@
       <c r="G16" s="43"/>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="21">
         <f>SUM(C8:C16)</f>
@@ -1174,7 +1198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
       <c r="C18" s="21"/>
       <c r="D18" s="26" t="s">
@@ -1189,7 +1213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="21"/>
       <c r="D19" s="26" t="s">
@@ -1202,7 +1226,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
       <c r="C20" s="21"/>
       <c r="D20" s="26" t="s">
@@ -1215,7 +1239,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31" t="s">
@@ -1228,12 +1252,12 @@
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="35"/>
       <c r="E24" s="4">
         <v>1</v>
@@ -1241,7 +1265,7 @@
       <c r="F24" s="36"/>
       <c r="I24" s="37"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="E25" s="4">
         <v>2</v>
@@ -1249,7 +1273,7 @@
       <c r="F25" s="36"/>
       <c r="I25" s="37"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
         <v>3</v>
@@ -1257,7 +1281,7 @@
       <c r="F26" s="36"/>
       <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4">
@@ -1268,14 +1292,14 @@
       <c r="H27" s="38"/>
       <c r="I27" s="39"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="E28" s="4">
         <v>5</v>
       </c>
       <c r="I28" s="37"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="E29" s="4">
         <v>6</v>
@@ -1283,7 +1307,7 @@
       <c r="F29" s="36"/>
       <c r="I29" s="37"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="E30" s="4">
         <v>7</v>
@@ -1291,18 +1315,18 @@
       <c r="F30" s="36"/>
       <c r="I30" s="37"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="F31" s="36"/>
       <c r="I31" s="37"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="37"/>
     </row>
-    <row r="33" spans="5:12" ht="14.25" customHeight="1">
+    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4">
         <v>1</v>
       </c>
@@ -1312,7 +1336,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="5:12" ht="14.25" customHeight="1">
+    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4">
         <v>2</v>
       </c>
@@ -1322,7 +1346,7 @@
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="5:12" ht="14.25" customHeight="1">
+    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4">
         <v>3</v>
       </c>
@@ -1331,76 +1355,76 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="5:12" ht="14.25" customHeight="1">
+    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="5:12" ht="10.5" customHeight="1">
+    <row r="37" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="5:12" ht="10.5" customHeight="1">
+    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="5:12" ht="10.5" customHeight="1">
+    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="5:12" ht="10.5" customHeight="1">
+    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="5:12" ht="10.5" customHeight="1">
+    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="5:12">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="5:12">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="5:12">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="5:12">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="5:12">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="5:12">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="5:12">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="9:9">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="9:9">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="9:9">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="9:9">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="9:9">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="9:9">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="9:9">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="9:9">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="9:9">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="9:9">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="9:9">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" s="5"/>
     </row>
   </sheetData>
@@ -1418,30 +1442,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1490,32 +1529,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1529,9 +1546,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Agenda en notulen/Agenda's/Agenda_Week_2.xlsx
+++ b/Docs/Agenda en notulen/Agenda's/Agenda_Week_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>wie</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Groep</t>
+  </si>
+  <si>
+    <t>Communicatie bij afwezigheid</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -470,17 +473,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -489,7 +481,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -567,7 +559,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -601,6 +592,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -909,10 +904,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,51 +927,51 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1155,120 +1150,125 @@
         <v>8</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="28"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>3</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="14">
         <v>9</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="66"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="40">
+        <v>10</v>
+      </c>
+      <c r="F17" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21">
+      <c r="G17" s="43"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21">
         <f>SUM(C8:C16)</f>
         <v>30</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="21"/>
       <c r="D19" s="26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="24" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
       <c r="C20" s="21"/>
       <c r="D20" s="26" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="4" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="E24" s="4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+      <c r="E25" s="4">
         <v>1</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="E25" s="4">
-        <v>2</v>
       </c>
       <c r="F25" s="36"/>
       <c r="I25" s="37"/>
@@ -1276,69 +1276,67 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="36"/>
       <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="D27" s="3"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
       <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4">
         <v>4</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="I28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="E29" s="4">
-        <v>6</v>
-      </c>
-      <c r="F29" s="36"/>
+        <v>5</v>
+      </c>
       <c r="I29" s="37"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="E30" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="36"/>
       <c r="I30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
+      <c r="E31" s="4">
+        <v>7</v>
+      </c>
       <c r="F31" s="36"/>
       <c r="I31" s="37"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="4" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="F32" s="36"/>
+      <c r="I32" s="37"/>
+    </row>
+    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="37"/>
-    </row>
-    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="17"/>
       <c r="I33" s="37"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="17"/>
       <c r="I34" s="37"/>
@@ -1348,17 +1346,24 @@
     </row>
     <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F35" s="17"/>
       <c r="I35" s="37"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
     <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1373,7 +1378,7 @@
     <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.25">
@@ -1426,6 +1431,9 @@
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1466,21 +1474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1529,10 +1522,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1546,16 +1561,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Agenda en notulen/Agenda's/Agenda_Week_2.xlsx
+++ b/Docs/Agenda en notulen/Agenda's/Agenda_Week_2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Project_P5\Docs\Agenda en notulen\Agenda's\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -26,7 +21,7 @@
     <author>Fer</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>wie</t>
   </si>
@@ -195,9 +190,6 @@
     <t>Technical design</t>
   </si>
   <si>
-    <t>Tijd: 9:30:00 t/m 10:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datum:26-09-2014 </t>
   </si>
   <si>
@@ -205,16 +197,19 @@
   </si>
   <si>
     <t>Communicatie bij afwezigheid</t>
+  </si>
+  <si>
+    <t>Tijd: 14:00 t/m 14:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -471,6 +466,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -481,7 +487,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -559,6 +565,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -592,10 +603,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,7 +622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -657,7 +664,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,10 +696,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +730,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -900,17 +905,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -925,56 +930,56 @@
     <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
+    <row r="4" spans="2:10">
+      <c r="B4" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B5" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -992,7 +997,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -1001,7 +1006,7 @@
       <c r="H7" s="28"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1021,7 +1026,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1040,9 +1045,9 @@
       <c r="H9" s="28"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="12">
         <v>5</v>
@@ -1060,9 +1065,9 @@
       <c r="H10" s="28"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="12">
         <v>5</v>
@@ -1079,9 +1084,9 @@
       <c r="H11" s="28"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="12">
         <v>5</v>
@@ -1098,9 +1103,9 @@
       <c r="H12" s="28"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12">
         <v>2</v>
@@ -1117,9 +1122,9 @@
       <c r="H13" s="28"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="12">
         <v>5</v>
@@ -1136,9 +1141,9 @@
       <c r="H14" s="28"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="12">
         <v>2</v>
@@ -1150,15 +1155,15 @@
         <v>8</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="28"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="18">
         <v>3</v>
@@ -1172,23 +1177,25 @@
       <c r="F16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="67"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="66"/>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B17" s="45" t="s">
+        <v>17</v>
+      </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="40">
         <v>10</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="47" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18" s="20"/>
       <c r="C18" s="21">
         <f>SUM(C8:C16)</f>
@@ -1206,7 +1213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="25"/>
       <c r="C19" s="21"/>
       <c r="D19" s="26" t="s">
@@ -1221,7 +1228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="B20" s="25"/>
       <c r="C20" s="21"/>
       <c r="D20" s="26" t="s">
@@ -1234,7 +1241,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="B21" s="25"/>
       <c r="C21" s="21"/>
       <c r="D21" s="26" t="s">
@@ -1247,7 +1254,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
       <c r="D22" s="31" t="s">
@@ -1260,12 +1267,12 @@
       <c r="G22" s="33"/>
       <c r="H22" s="34"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="B25" s="35"/>
       <c r="E25" s="4">
         <v>1</v>
@@ -1273,7 +1280,7 @@
       <c r="F25" s="36"/>
       <c r="I25" s="37"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
         <v>2</v>
@@ -1281,7 +1288,7 @@
       <c r="F26" s="36"/>
       <c r="I26" s="37"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="1"/>
       <c r="E27" s="4">
         <v>3</v>
@@ -1289,7 +1296,7 @@
       <c r="F27" s="36"/>
       <c r="I27" s="37"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1">
       <c r="A28"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4">
@@ -1300,14 +1307,14 @@
       <c r="H28" s="38"/>
       <c r="I28" s="39"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="I29" s="37"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1"/>
       <c r="E30" s="4">
         <v>6</v>
@@ -1315,7 +1322,7 @@
       <c r="F30" s="36"/>
       <c r="I30" s="37"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1"/>
       <c r="E31" s="4">
         <v>7</v>
@@ -1323,18 +1330,18 @@
       <c r="F31" s="36"/>
       <c r="I31" s="37"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="F32" s="36"/>
       <c r="I32" s="37"/>
     </row>
-    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" ht="14.25" customHeight="1">
       <c r="E33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="37"/>
     </row>
-    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" ht="14.25" customHeight="1">
       <c r="E34" s="4">
         <v>1</v>
       </c>
@@ -1344,7 +1351,7 @@
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" ht="14.25" customHeight="1">
       <c r="E35" s="4">
         <v>2</v>
       </c>
@@ -1354,7 +1361,7 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" ht="14.25" customHeight="1">
       <c r="E36" s="4">
         <v>3</v>
       </c>
@@ -1363,76 +1370,76 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" ht="14.25" customHeight="1">
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" ht="10.5" customHeight="1">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" ht="10.5" customHeight="1">
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" ht="10.5" customHeight="1">
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" ht="10.5" customHeight="1">
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" ht="10.5" customHeight="1">
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12">
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12">
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12">
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12">
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12">
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12">
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:9">
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:9">
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:9">
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:9">
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:9">
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:9">
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:9">
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:9">
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:9">
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:9">
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:9">
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:9">
       <c r="I60" s="5"/>
     </row>
   </sheetData>
@@ -1450,24 +1457,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
